--- a/demultiplexer2/data/primersets/fwh2F-fwhR2n_primerset.xlsx
+++ b/demultiplexer2/data/primersets/fwh2F-fwhR2n_primerset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\demultiplexer2\demultiplexer2\data\primersets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9215B75-DD00-4170-806D-32A97F0F1B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500E4589-E51A-46D3-9648-B1B174C9FF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_information" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -654,7 +656,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +947,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
